--- a/HM_2016.09.07/FinalTask1/TestCases.xlsx
+++ b/HM_2016.09.07/FinalTask1/TestCases.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="22860" windowHeight="13665"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="TestCases" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -432,7 +432,7 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
